--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Preceeding decade</t>
   </si>
@@ -41,6 +41,9 @@
     <t>England &amp; Wales 1918-19</t>
   </si>
   <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
     <t>England &amp; Wales 1968-70</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>120-297</t>
   </si>
   <si>
+    <t>29-361</t>
+  </si>
+  <si>
     <t>17-173</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>1265-3301</t>
   </si>
   <si>
+    <t>53-173</t>
+  </si>
+  <si>
     <t>96-148</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>196-734</t>
   </si>
   <si>
+    <t>17-154</t>
+  </si>
+  <si>
     <t>10-135</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>118-567</t>
   </si>
   <si>
+    <t>14-148</t>
+  </si>
+  <si>
     <t>4-42</t>
   </si>
   <si>
@@ -116,6 +131,9 @@
     <t>England &amp; Wales 1918-19</t>
   </si>
   <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
     <t>England &amp; Wales 1968-70</t>
   </si>
   <si>
@@ -143,6 +161,9 @@
     <t>England &amp; Wales 1918-19</t>
   </si>
   <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
     <t>England &amp; Wales 1968-70</t>
   </si>
   <si>
@@ -158,6 +179,9 @@
     <t>120-297</t>
   </si>
   <si>
+    <t>29-361</t>
+  </si>
+  <si>
     <t>17-173</t>
   </si>
   <si>
@@ -173,6 +197,9 @@
     <t>1265-3301</t>
   </si>
   <si>
+    <t>53-173</t>
+  </si>
+  <si>
     <t>96-148</t>
   </si>
   <si>
@@ -188,6 +215,9 @@
     <t>196-734</t>
   </si>
   <si>
+    <t>17-154</t>
+  </si>
+  <si>
     <t>10-135</t>
   </si>
   <si>
@@ -203,6 +233,9 @@
     <t>118-567</t>
   </si>
   <si>
+    <t>14-148</t>
+  </si>
+  <si>
     <t>4-42</t>
   </si>
   <si>
@@ -218,208 +251,7 @@
     <t>England &amp; Wales 1918-19</t>
   </si>
   <si>
-    <t>England &amp; Wales 1968-70</t>
-  </si>
-  <si>
-    <t>Preceeding decade</t>
-  </si>
-  <si>
-    <t>Main waves</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade I</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade II</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1848-49</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1890-91</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1918-19</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1968-70</t>
-  </si>
-  <si>
-    <t>Preceeding decade</t>
-  </si>
-  <si>
-    <t>42-104</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>120-297</t>
-  </si>
-  <si>
-    <t>17-173</t>
-  </si>
-  <si>
-    <t>Main waves</t>
-  </si>
-  <si>
-    <t>285-459</t>
-  </si>
-  <si>
-    <t>157-574</t>
-  </si>
-  <si>
-    <t>1265-3301</t>
-  </si>
-  <si>
-    <t>96-148</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade I</t>
-  </si>
-  <si>
-    <t>55-193</t>
-  </si>
-  <si>
-    <t>122-533</t>
-  </si>
-  <si>
-    <t>196-734</t>
-  </si>
-  <si>
-    <t>10-135</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade II</t>
-  </si>
-  <si>
-    <t>14-58</t>
-  </si>
-  <si>
-    <t>120-288</t>
-  </si>
-  <si>
-    <t>118-567</t>
-  </si>
-  <si>
-    <t>4-42</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1848-49</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1890-91</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1918-19</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1968-70</t>
-  </si>
-  <si>
-    <t>Preceeding decade</t>
-  </si>
-  <si>
-    <t>Main waves</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade I</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade II</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1848-49</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1890-91</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1918-19</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1968-70</t>
-  </si>
-  <si>
-    <t>Preceeding decade</t>
-  </si>
-  <si>
-    <t>42-104</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>120-297</t>
-  </si>
-  <si>
-    <t>17-173</t>
-  </si>
-  <si>
-    <t>Main waves</t>
-  </si>
-  <si>
-    <t>285-459</t>
-  </si>
-  <si>
-    <t>157-574</t>
-  </si>
-  <si>
-    <t>1265-3301</t>
-  </si>
-  <si>
-    <t>96-148</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade I</t>
-  </si>
-  <si>
-    <t>55-193</t>
-  </si>
-  <si>
-    <t>122-533</t>
-  </si>
-  <si>
-    <t>196-734</t>
-  </si>
-  <si>
-    <t>10-135</t>
-  </si>
-  <si>
-    <t>Post-pandemic decade II</t>
-  </si>
-  <si>
-    <t>14-58</t>
-  </si>
-  <si>
-    <t>120-288</t>
-  </si>
-  <si>
-    <t>118-567</t>
-  </si>
-  <si>
-    <t>4-42</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1848-49</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1890-91</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1918-19</t>
+    <t>England &amp; Wales 1967-59</t>
   </si>
   <si>
     <t>England &amp; Wales 1968-70</t>
@@ -600,24 +432,24 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B3" s="0">
         <v>64.666666666666671</v>
@@ -634,7 +466,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0">
         <v>3.7000000000000002</v>
@@ -651,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B5" s="0">
         <v>209.09664764404297</v>
@@ -668,7 +500,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B6" s="0">
         <v>104.23189201354981</v>
@@ -685,7 +517,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="B7" s="0">
         <v>67.731188201904303</v>
@@ -718,104 +550,104 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
